--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/20/seed3/result_data_KNN.xlsx
@@ -522,10 +522,10 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.239999999999998</v>
+        <v>-8.109</v>
       </c>
       <c r="E5" t="n">
-        <v>12.91</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.606</v>
+        <v>-7.788999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>13.244</v>
+        <v>13.477</v>
       </c>
     </row>
     <row r="7">
@@ -553,10 +553,10 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.302</v>
+        <v>-12.529</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.065999999999999</v>
+        <v>-7.992</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-20.734</v>
+        <v>-21.007</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.324</v>
+        <v>-7.478</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.964000000000001</v>
+        <v>-7.828999999999999</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.804</v>
+        <v>-20.864</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -607,7 +607,7 @@
         <v>-10.58</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.324000000000001</v>
+        <v>-7.478</v>
       </c>
       <c r="E10" t="n">
         <v>16.23</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.33600000000001</v>
+        <v>-21.88</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -641,10 +641,10 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.239999999999998</v>
+        <v>-8.364999999999998</v>
       </c>
       <c r="E12" t="n">
-        <v>13.508</v>
+        <v>13.049</v>
       </c>
     </row>
     <row r="13">
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>6.38</v>
+        <v>6.502999999999998</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.484</v>
+        <v>-21.649</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.508</v>
+        <v>12.988</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.698</v>
+        <v>-13.391</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>12.746</v>
+        <v>13.164</v>
       </c>
     </row>
     <row r="21">
@@ -831,7 +831,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>13.784</v>
+        <v>13.171</v>
       </c>
     </row>
     <row r="24">
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.484</v>
+        <v>-21.938</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>12.91</v>
+        <v>12.992</v>
       </c>
     </row>
   </sheetData>
